--- a/biology/Botanique/Calyptrocalyx/Calyptrocalyx.xlsx
+++ b/biology/Botanique/Calyptrocalyx/Calyptrocalyx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calyptrocalyx est un genre de plantes de la famille des Arecaceae (palmiers), natifs de la Papouasie-Nouvelle-Guinée.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
@@ -545,9 +559,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (9 février 2020)[4] et The Plant List            (9 février 2020)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (9 février 2020) et The Plant List            (9 février 2020) :
 Calyptrocalyx albertisianus Becc. (1905)
 Calyptrocalyx amoenus Dowe &amp; M.D.Ferrero (2001)
 Calyptrocalyx arfakianus (Becc.) Dowe &amp; M.D.Ferrero (2001)
@@ -574,7 +590,7 @@
 Calyptrocalyx sessiliflorus Dowe &amp; M.D.Ferrero (1999)
 Calyptrocalyx spicatus (Lam.) Blume (1843)
 Calyptrocalyx yamutumene Dowe &amp; M.D.Ferrero (2001)
-Selon Tropicos                                           (9 février 2020)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 février 2020) (Attention liste brute contenant possiblement des synonymes) :
 Calyptrocalyx albertisianus Becc.
 Calyptrocalyx amoenus Dowe &amp; M.D.Ferrero
 Calyptrocalyx angustifrons Becc.
